--- a/CommitmentLettersApp/ImportTemplates/תבנית יבוא התחיבויות שיקום ביטוח לאומי.xlsx
+++ b/CommitmentLettersApp/ImportTemplates/תבנית יבוא התחיבויות שיקום ביטוח לאומי.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\DrLogyMisc\CommitmentLettersApp\ImportTemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ofir/Develop/Clients/DRLogy/Site/DrLogyMisc/CommitmentLettersApp/ImportTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20200543-D0B4-4DFB-8081-DA9C46E20A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA223AD-EF94-1C4E-BB51-FAB46FACD196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{80D5FA03-17CC-472B-A333-F3A10A5D6810}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10300" xr2:uid="{80D5FA03-17CC-472B-A333-F3A10A5D6810}"/>
   </bookViews>
   <sheets>
     <sheet name="ראשי" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>ת.ז</t>
   </si>
@@ -206,6 +205,9 @@
   </si>
   <si>
     <t>פרוייקט</t>
+  </si>
+  <si>
+    <t>שיר</t>
   </si>
 </sst>
 </file>
@@ -216,7 +218,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -225,7 +227,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -233,7 +235,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -241,13 +243,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -302,8 +304,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -319,7 +321,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -329,39 +331,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -413,7 +415,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -524,6 +526,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -532,13 +541,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -603,31 +605,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,27 +621,27 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="8.6640625" style="11"/>
     <col min="3" max="3" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" style="5" customWidth="1"/>
     <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.6640625" style="8"/>
-    <col min="8" max="8" width="9.4140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.33203125" style="12" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>55</v>
       </c>
@@ -724,7 +706,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B2" s="11">
         <v>123</v>
       </c>
@@ -759,7 +741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="9"/>
     </row>
   </sheetData>
@@ -770,7 +752,7 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B4128A4-7196-4215-9F67-B22DDA4A1998}">
           <x14:formula1>
             <xm:f>טבלאות!$A$2:$A$9</xm:f>
@@ -785,7 +767,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{54A042F5-6A70-4167-8F45-95036D4E9037}">
           <x14:formula1>
-            <xm:f>טבלאות!$C$2:$C$13</xm:f>
+            <xm:f>טבלאות!$C$2:$C$14</xm:f>
           </x14:formula1>
           <xm:sqref>L2</xm:sqref>
         </x14:dataValidation>
@@ -798,18 +780,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C62C1A-47BA-428A-A7F6-55A218332B22}">
   <sheetPr codeName="Worksheet______2"/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -820,7 +802,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -828,7 +810,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -839,7 +821,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -850,7 +832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -858,7 +840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -866,7 +848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -874,7 +856,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -882,7 +864,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -890,24 +872,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -923,26 +910,26 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>54</v>
       </c>
